--- a/html/resources/aoiConditions/train2P2Block3.xlsx
+++ b/html/resources/aoiConditions/train2P2Block3.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/11_tokiko1.wav</t>
-  </si>
-  <si>
     <t>trainingaudio/15_kopota3.wav</t>
   </si>
   <si>
-    <t>trainingaudio/09_tipata2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/11_compass.png</t>
+    <t>trainingaudio/07_pitapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/04_kitoti2.wav</t>
   </si>
   <si>
     <t>pngimages/15_barrel.png</t>
   </si>
   <si>
-    <t>pngimages/09_plane.png</t>
-  </si>
-  <si>
-    <t>pngimages/24_banana.png</t>
+    <t>pngimages/07_suitcase.png</t>
+  </si>
+  <si>
+    <t>pngimages/08_bell.png</t>
+  </si>
+  <si>
+    <t>pngimages/04_ladder.png</t>
   </si>
 </sst>
 </file>
